--- a/master-excel/chapter-01/chapter_01.xlsx
+++ b/master-excel/chapter-01/chapter_01.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\program\study\master-excel\chapter-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D280B-DAC1-4D46-A3F1-7211FA22A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F76A1-0B12-4E82-B52D-7B864C39F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数値の実態と演算誤差" sheetId="1" r:id="rId1"/>
+    <sheet name="データ入力規則" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>商品</t>
     <rPh sb="0" eb="2">
@@ -92,6 +93,22 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←数値入力（1～10以外はエラーを表示）</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -197,6 +220,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -690,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -869,4 +893,32 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB42DC5-FA4F-4967-9BD2-9959C7EEDF9F}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="8"/>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1～10の範囲の整数を入力してください" sqref="B2" xr:uid="{6D0D4026-405C-4D20-9F79-22AC48D479CE}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/master-excel/chapter-01/chapter_01.xlsx
+++ b/master-excel/chapter-01/chapter_01.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\program\study\master-excel\chapter-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F76A1-0B12-4E82-B52D-7B864C39F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED43CD32-1591-44CB-9D07-7B8A99B29CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数値の実態と演算誤差" sheetId="1" r:id="rId1"/>
     <sheet name="データ入力規則" sheetId="2" r:id="rId2"/>
+    <sheet name="名前参照での計算" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="支店">名前参照での計算!$A$3:$A$5</definedName>
+    <definedName name="売上">名前参照での計算!$B$3:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,8 +30,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>進藤渉</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FAB0541A-DF8B-49AB-B742-35DC1214AE47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>=SUM(売上)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{584F8CD4-7126-473D-99E6-A9AFEDD2210C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>=MAX(売上)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{442CFF1C-7A67-47FD-862D-F3A8706B61ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>=COUNTA(支店)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>商品</t>
     <rPh sb="0" eb="2">
@@ -109,6 +169,79 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上実績</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東店</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガシテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西店</t>
+    <rPh sb="0" eb="2">
+      <t>ニシテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南店</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計値</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店数</t>
+    <rPh sb="0" eb="3">
+      <t>シテンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,16 +251,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.0_);[Red]\(&quot;¥&quot;#,##0.0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.0_);[Red]\(&quot;¥&quot;#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -138,18 +271,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -202,28 +359,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,9 +413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -266,8 +430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057524" y="180975"/>
-          <a:ext cx="2257426" cy="628650"/>
+          <a:off x="3362324" y="180975"/>
+          <a:ext cx="2638426" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -298,29 +462,47 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>28+47</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t> = 75</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>だが、合計は</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>74</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>になっている</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -716,173 +898,176 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <f>B2*(1-C2)</f>
         <v>27.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>50</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <f>B3*(1-C3)</f>
         <v>46.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="1:4">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <f>SUM(D2:D3)</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <f>B9*(1-C9)</f>
         <v>27.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>50</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <f>B10*(1-C10)</f>
         <v>46.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <f>SUM(D9:D10)</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>30</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <f>ROUND(B16*(1-C16),0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <v>50</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <f>ROUND(B17*(1-C17),0)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:4">
+      <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10">
         <f>SUM(D16:D17)</f>
         <v>75</v>
       </c>
@@ -899,14 +1084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB42DC5-FA4F-4967-9BD2-9959C7EEDF9F}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="8"/>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -921,4 +1106,85 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537AE34-F67C-4995-96A7-5C96331929DC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13">
+        <f>SUM(売上)</f>
+        <v>33187930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13">
+        <v>12348875</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13">
+        <f>MAX(売上)</f>
+        <v>12348875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13">
+        <v>9532184</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <f>COUNTA(支店)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>11306871</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>